--- a/biology/Botanique/Plantago_sempervirens/Plantago_sempervirens.xlsx
+++ b/biology/Botanique/Plantago_sempervirens/Plantago_sempervirens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Plantago sempervirens
-Plantago sempervirens, le Plantain toujours vert ou Herbe aux puces est un sous-arbrisseau de la famille des Plantaginaceae. Il est aussi nommé Badasson en Provence où il est utilisé comme plante médicinale[1]. Il pousse sur les pelouses sèches et calcaires du sud-ouest de l'Europe[2].
+Plantago sempervirens, le Plantain toujours vert ou Herbe aux puces est un sous-arbrisseau de la famille des Plantaginaceae. Il est aussi nommé Badasson en Provence où il est utilisé comme plante médicinale. Il pousse sur les pelouses sèches et calcaires du sud-ouest de l'Europe.
 </t>
         </is>
       </c>
@@ -512,14 +524,51 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Petit buisson très ramifié de 15 à 40 cm, ses feuilles sont opposées, parfois verticillées, sessiles, fines et linéaires, entières. 
 L'inflorescence en épi d'environ 1 cm est composée de bractées dissemblables : les inférieures plus longues se terminent en pointe.
 			Inflorescence
 			Sous-arbrisseau
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Plantago_sempervirens</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Plantago_sempervirens</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : blanc
 Période de floraison : mai-août
 Inflorescence : épi simple
